--- a/InputData/io-model/PoNDHbE/Perc of National Debt Held by Entity.xlsx
+++ b/InputData/io-model/PoNDHbE/Perc of National Debt Held by Entity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\io-model\PoNDHbE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/io-model/pondhbe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C0E6E5-8CEA-47EB-9224-2FF957AD31C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F673839A-78C9-C446-B013-B541E5C4D333}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="435" windowWidth="23955" windowHeight="16500" xr2:uid="{451D0B24-AF55-4E31-8A85-DA035DBAD1DC}"/>
+    <workbookView xWindow="3460" yWindow="460" windowWidth="23960" windowHeight="15800" xr2:uid="{451D0B24-AF55-4E31-8A85-DA035DBAD1DC}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -561,6 +561,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1031,18 +1032,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33051D97-709F-4BD1-B350-8CFE7D780BAB}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="34">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1050,67 +1054,67 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="26">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -1136,346 +1140,346 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="10.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="6"/>
-    <col min="13" max="13" width="10.7109375" style="6" customWidth="1"/>
-    <col min="14" max="256" width="9.140625" style="6"/>
+    <col min="2" max="10" width="10.6640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="6"/>
+    <col min="13" max="13" width="10.6640625" style="6" customWidth="1"/>
+    <col min="14" max="256" width="9.1640625" style="6"/>
     <col min="257" max="257" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="258" max="267" width="10.7109375" style="6" customWidth="1"/>
-    <col min="268" max="268" width="9.140625" style="6"/>
-    <col min="269" max="269" width="10.7109375" style="6" customWidth="1"/>
-    <col min="270" max="512" width="9.140625" style="6"/>
+    <col min="258" max="267" width="10.6640625" style="6" customWidth="1"/>
+    <col min="268" max="268" width="9.1640625" style="6"/>
+    <col min="269" max="269" width="10.6640625" style="6" customWidth="1"/>
+    <col min="270" max="512" width="9.1640625" style="6"/>
     <col min="513" max="513" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="514" max="523" width="10.7109375" style="6" customWidth="1"/>
-    <col min="524" max="524" width="9.140625" style="6"/>
-    <col min="525" max="525" width="10.7109375" style="6" customWidth="1"/>
-    <col min="526" max="768" width="9.140625" style="6"/>
+    <col min="514" max="523" width="10.6640625" style="6" customWidth="1"/>
+    <col min="524" max="524" width="9.1640625" style="6"/>
+    <col min="525" max="525" width="10.6640625" style="6" customWidth="1"/>
+    <col min="526" max="768" width="9.1640625" style="6"/>
     <col min="769" max="769" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="770" max="779" width="10.7109375" style="6" customWidth="1"/>
-    <col min="780" max="780" width="9.140625" style="6"/>
-    <col min="781" max="781" width="10.7109375" style="6" customWidth="1"/>
-    <col min="782" max="1024" width="9.140625" style="6"/>
+    <col min="770" max="779" width="10.6640625" style="6" customWidth="1"/>
+    <col min="780" max="780" width="9.1640625" style="6"/>
+    <col min="781" max="781" width="10.6640625" style="6" customWidth="1"/>
+    <col min="782" max="1024" width="9.1640625" style="6"/>
     <col min="1025" max="1025" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1035" width="10.7109375" style="6" customWidth="1"/>
-    <col min="1036" max="1036" width="9.140625" style="6"/>
-    <col min="1037" max="1037" width="10.7109375" style="6" customWidth="1"/>
-    <col min="1038" max="1280" width="9.140625" style="6"/>
+    <col min="1026" max="1035" width="10.6640625" style="6" customWidth="1"/>
+    <col min="1036" max="1036" width="9.1640625" style="6"/>
+    <col min="1037" max="1037" width="10.6640625" style="6" customWidth="1"/>
+    <col min="1038" max="1280" width="9.1640625" style="6"/>
     <col min="1281" max="1281" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1291" width="10.7109375" style="6" customWidth="1"/>
-    <col min="1292" max="1292" width="9.140625" style="6"/>
-    <col min="1293" max="1293" width="10.7109375" style="6" customWidth="1"/>
-    <col min="1294" max="1536" width="9.140625" style="6"/>
+    <col min="1282" max="1291" width="10.6640625" style="6" customWidth="1"/>
+    <col min="1292" max="1292" width="9.1640625" style="6"/>
+    <col min="1293" max="1293" width="10.6640625" style="6" customWidth="1"/>
+    <col min="1294" max="1536" width="9.1640625" style="6"/>
     <col min="1537" max="1537" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1547" width="10.7109375" style="6" customWidth="1"/>
-    <col min="1548" max="1548" width="9.140625" style="6"/>
-    <col min="1549" max="1549" width="10.7109375" style="6" customWidth="1"/>
-    <col min="1550" max="1792" width="9.140625" style="6"/>
+    <col min="1538" max="1547" width="10.6640625" style="6" customWidth="1"/>
+    <col min="1548" max="1548" width="9.1640625" style="6"/>
+    <col min="1549" max="1549" width="10.6640625" style="6" customWidth="1"/>
+    <col min="1550" max="1792" width="9.1640625" style="6"/>
     <col min="1793" max="1793" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1803" width="10.7109375" style="6" customWidth="1"/>
-    <col min="1804" max="1804" width="9.140625" style="6"/>
-    <col min="1805" max="1805" width="10.7109375" style="6" customWidth="1"/>
-    <col min="1806" max="2048" width="9.140625" style="6"/>
+    <col min="1794" max="1803" width="10.6640625" style="6" customWidth="1"/>
+    <col min="1804" max="1804" width="9.1640625" style="6"/>
+    <col min="1805" max="1805" width="10.6640625" style="6" customWidth="1"/>
+    <col min="1806" max="2048" width="9.1640625" style="6"/>
     <col min="2049" max="2049" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2059" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2060" max="2060" width="9.140625" style="6"/>
-    <col min="2061" max="2061" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2062" max="2304" width="9.140625" style="6"/>
+    <col min="2050" max="2059" width="10.6640625" style="6" customWidth="1"/>
+    <col min="2060" max="2060" width="9.1640625" style="6"/>
+    <col min="2061" max="2061" width="10.6640625" style="6" customWidth="1"/>
+    <col min="2062" max="2304" width="9.1640625" style="6"/>
     <col min="2305" max="2305" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2315" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2316" max="2316" width="9.140625" style="6"/>
-    <col min="2317" max="2317" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2318" max="2560" width="9.140625" style="6"/>
+    <col min="2306" max="2315" width="10.6640625" style="6" customWidth="1"/>
+    <col min="2316" max="2316" width="9.1640625" style="6"/>
+    <col min="2317" max="2317" width="10.6640625" style="6" customWidth="1"/>
+    <col min="2318" max="2560" width="9.1640625" style="6"/>
     <col min="2561" max="2561" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2571" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2572" max="2572" width="9.140625" style="6"/>
-    <col min="2573" max="2573" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2574" max="2816" width="9.140625" style="6"/>
+    <col min="2562" max="2571" width="10.6640625" style="6" customWidth="1"/>
+    <col min="2572" max="2572" width="9.1640625" style="6"/>
+    <col min="2573" max="2573" width="10.6640625" style="6" customWidth="1"/>
+    <col min="2574" max="2816" width="9.1640625" style="6"/>
     <col min="2817" max="2817" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2827" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2828" max="2828" width="9.140625" style="6"/>
-    <col min="2829" max="2829" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2830" max="3072" width="9.140625" style="6"/>
+    <col min="2818" max="2827" width="10.6640625" style="6" customWidth="1"/>
+    <col min="2828" max="2828" width="9.1640625" style="6"/>
+    <col min="2829" max="2829" width="10.6640625" style="6" customWidth="1"/>
+    <col min="2830" max="3072" width="9.1640625" style="6"/>
     <col min="3073" max="3073" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3083" width="10.7109375" style="6" customWidth="1"/>
-    <col min="3084" max="3084" width="9.140625" style="6"/>
-    <col min="3085" max="3085" width="10.7109375" style="6" customWidth="1"/>
-    <col min="3086" max="3328" width="9.140625" style="6"/>
+    <col min="3074" max="3083" width="10.6640625" style="6" customWidth="1"/>
+    <col min="3084" max="3084" width="9.1640625" style="6"/>
+    <col min="3085" max="3085" width="10.6640625" style="6" customWidth="1"/>
+    <col min="3086" max="3328" width="9.1640625" style="6"/>
     <col min="3329" max="3329" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3339" width="10.7109375" style="6" customWidth="1"/>
-    <col min="3340" max="3340" width="9.140625" style="6"/>
-    <col min="3341" max="3341" width="10.7109375" style="6" customWidth="1"/>
-    <col min="3342" max="3584" width="9.140625" style="6"/>
+    <col min="3330" max="3339" width="10.6640625" style="6" customWidth="1"/>
+    <col min="3340" max="3340" width="9.1640625" style="6"/>
+    <col min="3341" max="3341" width="10.6640625" style="6" customWidth="1"/>
+    <col min="3342" max="3584" width="9.1640625" style="6"/>
     <col min="3585" max="3585" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3595" width="10.7109375" style="6" customWidth="1"/>
-    <col min="3596" max="3596" width="9.140625" style="6"/>
-    <col min="3597" max="3597" width="10.7109375" style="6" customWidth="1"/>
-    <col min="3598" max="3840" width="9.140625" style="6"/>
+    <col min="3586" max="3595" width="10.6640625" style="6" customWidth="1"/>
+    <col min="3596" max="3596" width="9.1640625" style="6"/>
+    <col min="3597" max="3597" width="10.6640625" style="6" customWidth="1"/>
+    <col min="3598" max="3840" width="9.1640625" style="6"/>
     <col min="3841" max="3841" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3851" width="10.7109375" style="6" customWidth="1"/>
-    <col min="3852" max="3852" width="9.140625" style="6"/>
-    <col min="3853" max="3853" width="10.7109375" style="6" customWidth="1"/>
-    <col min="3854" max="4096" width="9.140625" style="6"/>
+    <col min="3842" max="3851" width="10.6640625" style="6" customWidth="1"/>
+    <col min="3852" max="3852" width="9.1640625" style="6"/>
+    <col min="3853" max="3853" width="10.6640625" style="6" customWidth="1"/>
+    <col min="3854" max="4096" width="9.1640625" style="6"/>
     <col min="4097" max="4097" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4107" width="10.7109375" style="6" customWidth="1"/>
-    <col min="4108" max="4108" width="9.140625" style="6"/>
-    <col min="4109" max="4109" width="10.7109375" style="6" customWidth="1"/>
-    <col min="4110" max="4352" width="9.140625" style="6"/>
+    <col min="4098" max="4107" width="10.6640625" style="6" customWidth="1"/>
+    <col min="4108" max="4108" width="9.1640625" style="6"/>
+    <col min="4109" max="4109" width="10.6640625" style="6" customWidth="1"/>
+    <col min="4110" max="4352" width="9.1640625" style="6"/>
     <col min="4353" max="4353" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4363" width="10.7109375" style="6" customWidth="1"/>
-    <col min="4364" max="4364" width="9.140625" style="6"/>
-    <col min="4365" max="4365" width="10.7109375" style="6" customWidth="1"/>
-    <col min="4366" max="4608" width="9.140625" style="6"/>
+    <col min="4354" max="4363" width="10.6640625" style="6" customWidth="1"/>
+    <col min="4364" max="4364" width="9.1640625" style="6"/>
+    <col min="4365" max="4365" width="10.6640625" style="6" customWidth="1"/>
+    <col min="4366" max="4608" width="9.1640625" style="6"/>
     <col min="4609" max="4609" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4619" width="10.7109375" style="6" customWidth="1"/>
-    <col min="4620" max="4620" width="9.140625" style="6"/>
-    <col min="4621" max="4621" width="10.7109375" style="6" customWidth="1"/>
-    <col min="4622" max="4864" width="9.140625" style="6"/>
+    <col min="4610" max="4619" width="10.6640625" style="6" customWidth="1"/>
+    <col min="4620" max="4620" width="9.1640625" style="6"/>
+    <col min="4621" max="4621" width="10.6640625" style="6" customWidth="1"/>
+    <col min="4622" max="4864" width="9.1640625" style="6"/>
     <col min="4865" max="4865" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4875" width="10.7109375" style="6" customWidth="1"/>
-    <col min="4876" max="4876" width="9.140625" style="6"/>
-    <col min="4877" max="4877" width="10.7109375" style="6" customWidth="1"/>
-    <col min="4878" max="5120" width="9.140625" style="6"/>
+    <col min="4866" max="4875" width="10.6640625" style="6" customWidth="1"/>
+    <col min="4876" max="4876" width="9.1640625" style="6"/>
+    <col min="4877" max="4877" width="10.6640625" style="6" customWidth="1"/>
+    <col min="4878" max="5120" width="9.1640625" style="6"/>
     <col min="5121" max="5121" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5131" width="10.7109375" style="6" customWidth="1"/>
-    <col min="5132" max="5132" width="9.140625" style="6"/>
-    <col min="5133" max="5133" width="10.7109375" style="6" customWidth="1"/>
-    <col min="5134" max="5376" width="9.140625" style="6"/>
+    <col min="5122" max="5131" width="10.6640625" style="6" customWidth="1"/>
+    <col min="5132" max="5132" width="9.1640625" style="6"/>
+    <col min="5133" max="5133" width="10.6640625" style="6" customWidth="1"/>
+    <col min="5134" max="5376" width="9.1640625" style="6"/>
     <col min="5377" max="5377" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5387" width="10.7109375" style="6" customWidth="1"/>
-    <col min="5388" max="5388" width="9.140625" style="6"/>
-    <col min="5389" max="5389" width="10.7109375" style="6" customWidth="1"/>
-    <col min="5390" max="5632" width="9.140625" style="6"/>
+    <col min="5378" max="5387" width="10.6640625" style="6" customWidth="1"/>
+    <col min="5388" max="5388" width="9.1640625" style="6"/>
+    <col min="5389" max="5389" width="10.6640625" style="6" customWidth="1"/>
+    <col min="5390" max="5632" width="9.1640625" style="6"/>
     <col min="5633" max="5633" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5643" width="10.7109375" style="6" customWidth="1"/>
-    <col min="5644" max="5644" width="9.140625" style="6"/>
-    <col min="5645" max="5645" width="10.7109375" style="6" customWidth="1"/>
-    <col min="5646" max="5888" width="9.140625" style="6"/>
+    <col min="5634" max="5643" width="10.6640625" style="6" customWidth="1"/>
+    <col min="5644" max="5644" width="9.1640625" style="6"/>
+    <col min="5645" max="5645" width="10.6640625" style="6" customWidth="1"/>
+    <col min="5646" max="5888" width="9.1640625" style="6"/>
     <col min="5889" max="5889" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5899" width="10.7109375" style="6" customWidth="1"/>
-    <col min="5900" max="5900" width="9.140625" style="6"/>
-    <col min="5901" max="5901" width="10.7109375" style="6" customWidth="1"/>
-    <col min="5902" max="6144" width="9.140625" style="6"/>
+    <col min="5890" max="5899" width="10.6640625" style="6" customWidth="1"/>
+    <col min="5900" max="5900" width="9.1640625" style="6"/>
+    <col min="5901" max="5901" width="10.6640625" style="6" customWidth="1"/>
+    <col min="5902" max="6144" width="9.1640625" style="6"/>
     <col min="6145" max="6145" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6155" width="10.7109375" style="6" customWidth="1"/>
-    <col min="6156" max="6156" width="9.140625" style="6"/>
-    <col min="6157" max="6157" width="10.7109375" style="6" customWidth="1"/>
-    <col min="6158" max="6400" width="9.140625" style="6"/>
+    <col min="6146" max="6155" width="10.6640625" style="6" customWidth="1"/>
+    <col min="6156" max="6156" width="9.1640625" style="6"/>
+    <col min="6157" max="6157" width="10.6640625" style="6" customWidth="1"/>
+    <col min="6158" max="6400" width="9.1640625" style="6"/>
     <col min="6401" max="6401" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6411" width="10.7109375" style="6" customWidth="1"/>
-    <col min="6412" max="6412" width="9.140625" style="6"/>
-    <col min="6413" max="6413" width="10.7109375" style="6" customWidth="1"/>
-    <col min="6414" max="6656" width="9.140625" style="6"/>
+    <col min="6402" max="6411" width="10.6640625" style="6" customWidth="1"/>
+    <col min="6412" max="6412" width="9.1640625" style="6"/>
+    <col min="6413" max="6413" width="10.6640625" style="6" customWidth="1"/>
+    <col min="6414" max="6656" width="9.1640625" style="6"/>
     <col min="6657" max="6657" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6667" width="10.7109375" style="6" customWidth="1"/>
-    <col min="6668" max="6668" width="9.140625" style="6"/>
-    <col min="6669" max="6669" width="10.7109375" style="6" customWidth="1"/>
-    <col min="6670" max="6912" width="9.140625" style="6"/>
+    <col min="6658" max="6667" width="10.6640625" style="6" customWidth="1"/>
+    <col min="6668" max="6668" width="9.1640625" style="6"/>
+    <col min="6669" max="6669" width="10.6640625" style="6" customWidth="1"/>
+    <col min="6670" max="6912" width="9.1640625" style="6"/>
     <col min="6913" max="6913" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6923" width="10.7109375" style="6" customWidth="1"/>
-    <col min="6924" max="6924" width="9.140625" style="6"/>
-    <col min="6925" max="6925" width="10.7109375" style="6" customWidth="1"/>
-    <col min="6926" max="7168" width="9.140625" style="6"/>
+    <col min="6914" max="6923" width="10.6640625" style="6" customWidth="1"/>
+    <col min="6924" max="6924" width="9.1640625" style="6"/>
+    <col min="6925" max="6925" width="10.6640625" style="6" customWidth="1"/>
+    <col min="6926" max="7168" width="9.1640625" style="6"/>
     <col min="7169" max="7169" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7179" width="10.7109375" style="6" customWidth="1"/>
-    <col min="7180" max="7180" width="9.140625" style="6"/>
-    <col min="7181" max="7181" width="10.7109375" style="6" customWidth="1"/>
-    <col min="7182" max="7424" width="9.140625" style="6"/>
+    <col min="7170" max="7179" width="10.6640625" style="6" customWidth="1"/>
+    <col min="7180" max="7180" width="9.1640625" style="6"/>
+    <col min="7181" max="7181" width="10.6640625" style="6" customWidth="1"/>
+    <col min="7182" max="7424" width="9.1640625" style="6"/>
     <col min="7425" max="7425" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7435" width="10.7109375" style="6" customWidth="1"/>
-    <col min="7436" max="7436" width="9.140625" style="6"/>
-    <col min="7437" max="7437" width="10.7109375" style="6" customWidth="1"/>
-    <col min="7438" max="7680" width="9.140625" style="6"/>
+    <col min="7426" max="7435" width="10.6640625" style="6" customWidth="1"/>
+    <col min="7436" max="7436" width="9.1640625" style="6"/>
+    <col min="7437" max="7437" width="10.6640625" style="6" customWidth="1"/>
+    <col min="7438" max="7680" width="9.1640625" style="6"/>
     <col min="7681" max="7681" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7691" width="10.7109375" style="6" customWidth="1"/>
-    <col min="7692" max="7692" width="9.140625" style="6"/>
-    <col min="7693" max="7693" width="10.7109375" style="6" customWidth="1"/>
-    <col min="7694" max="7936" width="9.140625" style="6"/>
+    <col min="7682" max="7691" width="10.6640625" style="6" customWidth="1"/>
+    <col min="7692" max="7692" width="9.1640625" style="6"/>
+    <col min="7693" max="7693" width="10.6640625" style="6" customWidth="1"/>
+    <col min="7694" max="7936" width="9.1640625" style="6"/>
     <col min="7937" max="7937" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7947" width="10.7109375" style="6" customWidth="1"/>
-    <col min="7948" max="7948" width="9.140625" style="6"/>
-    <col min="7949" max="7949" width="10.7109375" style="6" customWidth="1"/>
-    <col min="7950" max="8192" width="9.140625" style="6"/>
+    <col min="7938" max="7947" width="10.6640625" style="6" customWidth="1"/>
+    <col min="7948" max="7948" width="9.1640625" style="6"/>
+    <col min="7949" max="7949" width="10.6640625" style="6" customWidth="1"/>
+    <col min="7950" max="8192" width="9.1640625" style="6"/>
     <col min="8193" max="8193" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8203" width="10.7109375" style="6" customWidth="1"/>
-    <col min="8204" max="8204" width="9.140625" style="6"/>
-    <col min="8205" max="8205" width="10.7109375" style="6" customWidth="1"/>
-    <col min="8206" max="8448" width="9.140625" style="6"/>
+    <col min="8194" max="8203" width="10.6640625" style="6" customWidth="1"/>
+    <col min="8204" max="8204" width="9.1640625" style="6"/>
+    <col min="8205" max="8205" width="10.6640625" style="6" customWidth="1"/>
+    <col min="8206" max="8448" width="9.1640625" style="6"/>
     <col min="8449" max="8449" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8459" width="10.7109375" style="6" customWidth="1"/>
-    <col min="8460" max="8460" width="9.140625" style="6"/>
-    <col min="8461" max="8461" width="10.7109375" style="6" customWidth="1"/>
-    <col min="8462" max="8704" width="9.140625" style="6"/>
+    <col min="8450" max="8459" width="10.6640625" style="6" customWidth="1"/>
+    <col min="8460" max="8460" width="9.1640625" style="6"/>
+    <col min="8461" max="8461" width="10.6640625" style="6" customWidth="1"/>
+    <col min="8462" max="8704" width="9.1640625" style="6"/>
     <col min="8705" max="8705" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8715" width="10.7109375" style="6" customWidth="1"/>
-    <col min="8716" max="8716" width="9.140625" style="6"/>
-    <col min="8717" max="8717" width="10.7109375" style="6" customWidth="1"/>
-    <col min="8718" max="8960" width="9.140625" style="6"/>
+    <col min="8706" max="8715" width="10.6640625" style="6" customWidth="1"/>
+    <col min="8716" max="8716" width="9.1640625" style="6"/>
+    <col min="8717" max="8717" width="10.6640625" style="6" customWidth="1"/>
+    <col min="8718" max="8960" width="9.1640625" style="6"/>
     <col min="8961" max="8961" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8971" width="10.7109375" style="6" customWidth="1"/>
-    <col min="8972" max="8972" width="9.140625" style="6"/>
-    <col min="8973" max="8973" width="10.7109375" style="6" customWidth="1"/>
-    <col min="8974" max="9216" width="9.140625" style="6"/>
+    <col min="8962" max="8971" width="10.6640625" style="6" customWidth="1"/>
+    <col min="8972" max="8972" width="9.1640625" style="6"/>
+    <col min="8973" max="8973" width="10.6640625" style="6" customWidth="1"/>
+    <col min="8974" max="9216" width="9.1640625" style="6"/>
     <col min="9217" max="9217" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9227" width="10.7109375" style="6" customWidth="1"/>
-    <col min="9228" max="9228" width="9.140625" style="6"/>
-    <col min="9229" max="9229" width="10.7109375" style="6" customWidth="1"/>
-    <col min="9230" max="9472" width="9.140625" style="6"/>
+    <col min="9218" max="9227" width="10.6640625" style="6" customWidth="1"/>
+    <col min="9228" max="9228" width="9.1640625" style="6"/>
+    <col min="9229" max="9229" width="10.6640625" style="6" customWidth="1"/>
+    <col min="9230" max="9472" width="9.1640625" style="6"/>
     <col min="9473" max="9473" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9483" width="10.7109375" style="6" customWidth="1"/>
-    <col min="9484" max="9484" width="9.140625" style="6"/>
-    <col min="9485" max="9485" width="10.7109375" style="6" customWidth="1"/>
-    <col min="9486" max="9728" width="9.140625" style="6"/>
+    <col min="9474" max="9483" width="10.6640625" style="6" customWidth="1"/>
+    <col min="9484" max="9484" width="9.1640625" style="6"/>
+    <col min="9485" max="9485" width="10.6640625" style="6" customWidth="1"/>
+    <col min="9486" max="9728" width="9.1640625" style="6"/>
     <col min="9729" max="9729" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9739" width="10.7109375" style="6" customWidth="1"/>
-    <col min="9740" max="9740" width="9.140625" style="6"/>
-    <col min="9741" max="9741" width="10.7109375" style="6" customWidth="1"/>
-    <col min="9742" max="9984" width="9.140625" style="6"/>
+    <col min="9730" max="9739" width="10.6640625" style="6" customWidth="1"/>
+    <col min="9740" max="9740" width="9.1640625" style="6"/>
+    <col min="9741" max="9741" width="10.6640625" style="6" customWidth="1"/>
+    <col min="9742" max="9984" width="9.1640625" style="6"/>
     <col min="9985" max="9985" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9995" width="10.7109375" style="6" customWidth="1"/>
-    <col min="9996" max="9996" width="9.140625" style="6"/>
-    <col min="9997" max="9997" width="10.7109375" style="6" customWidth="1"/>
-    <col min="9998" max="10240" width="9.140625" style="6"/>
+    <col min="9986" max="9995" width="10.6640625" style="6" customWidth="1"/>
+    <col min="9996" max="9996" width="9.1640625" style="6"/>
+    <col min="9997" max="9997" width="10.6640625" style="6" customWidth="1"/>
+    <col min="9998" max="10240" width="9.1640625" style="6"/>
     <col min="10241" max="10241" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10251" width="10.7109375" style="6" customWidth="1"/>
-    <col min="10252" max="10252" width="9.140625" style="6"/>
-    <col min="10253" max="10253" width="10.7109375" style="6" customWidth="1"/>
-    <col min="10254" max="10496" width="9.140625" style="6"/>
+    <col min="10242" max="10251" width="10.6640625" style="6" customWidth="1"/>
+    <col min="10252" max="10252" width="9.1640625" style="6"/>
+    <col min="10253" max="10253" width="10.6640625" style="6" customWidth="1"/>
+    <col min="10254" max="10496" width="9.1640625" style="6"/>
     <col min="10497" max="10497" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10507" width="10.7109375" style="6" customWidth="1"/>
-    <col min="10508" max="10508" width="9.140625" style="6"/>
-    <col min="10509" max="10509" width="10.7109375" style="6" customWidth="1"/>
-    <col min="10510" max="10752" width="9.140625" style="6"/>
+    <col min="10498" max="10507" width="10.6640625" style="6" customWidth="1"/>
+    <col min="10508" max="10508" width="9.1640625" style="6"/>
+    <col min="10509" max="10509" width="10.6640625" style="6" customWidth="1"/>
+    <col min="10510" max="10752" width="9.1640625" style="6"/>
     <col min="10753" max="10753" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10763" width="10.7109375" style="6" customWidth="1"/>
-    <col min="10764" max="10764" width="9.140625" style="6"/>
-    <col min="10765" max="10765" width="10.7109375" style="6" customWidth="1"/>
-    <col min="10766" max="11008" width="9.140625" style="6"/>
+    <col min="10754" max="10763" width="10.6640625" style="6" customWidth="1"/>
+    <col min="10764" max="10764" width="9.1640625" style="6"/>
+    <col min="10765" max="10765" width="10.6640625" style="6" customWidth="1"/>
+    <col min="10766" max="11008" width="9.1640625" style="6"/>
     <col min="11009" max="11009" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11019" width="10.7109375" style="6" customWidth="1"/>
-    <col min="11020" max="11020" width="9.140625" style="6"/>
-    <col min="11021" max="11021" width="10.7109375" style="6" customWidth="1"/>
-    <col min="11022" max="11264" width="9.140625" style="6"/>
+    <col min="11010" max="11019" width="10.6640625" style="6" customWidth="1"/>
+    <col min="11020" max="11020" width="9.1640625" style="6"/>
+    <col min="11021" max="11021" width="10.6640625" style="6" customWidth="1"/>
+    <col min="11022" max="11264" width="9.1640625" style="6"/>
     <col min="11265" max="11265" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11275" width="10.7109375" style="6" customWidth="1"/>
-    <col min="11276" max="11276" width="9.140625" style="6"/>
-    <col min="11277" max="11277" width="10.7109375" style="6" customWidth="1"/>
-    <col min="11278" max="11520" width="9.140625" style="6"/>
+    <col min="11266" max="11275" width="10.6640625" style="6" customWidth="1"/>
+    <col min="11276" max="11276" width="9.1640625" style="6"/>
+    <col min="11277" max="11277" width="10.6640625" style="6" customWidth="1"/>
+    <col min="11278" max="11520" width="9.1640625" style="6"/>
     <col min="11521" max="11521" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11531" width="10.7109375" style="6" customWidth="1"/>
-    <col min="11532" max="11532" width="9.140625" style="6"/>
-    <col min="11533" max="11533" width="10.7109375" style="6" customWidth="1"/>
-    <col min="11534" max="11776" width="9.140625" style="6"/>
+    <col min="11522" max="11531" width="10.6640625" style="6" customWidth="1"/>
+    <col min="11532" max="11532" width="9.1640625" style="6"/>
+    <col min="11533" max="11533" width="10.6640625" style="6" customWidth="1"/>
+    <col min="11534" max="11776" width="9.1640625" style="6"/>
     <col min="11777" max="11777" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11787" width="10.7109375" style="6" customWidth="1"/>
-    <col min="11788" max="11788" width="9.140625" style="6"/>
-    <col min="11789" max="11789" width="10.7109375" style="6" customWidth="1"/>
-    <col min="11790" max="12032" width="9.140625" style="6"/>
+    <col min="11778" max="11787" width="10.6640625" style="6" customWidth="1"/>
+    <col min="11788" max="11788" width="9.1640625" style="6"/>
+    <col min="11789" max="11789" width="10.6640625" style="6" customWidth="1"/>
+    <col min="11790" max="12032" width="9.1640625" style="6"/>
     <col min="12033" max="12033" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12043" width="10.7109375" style="6" customWidth="1"/>
-    <col min="12044" max="12044" width="9.140625" style="6"/>
-    <col min="12045" max="12045" width="10.7109375" style="6" customWidth="1"/>
-    <col min="12046" max="12288" width="9.140625" style="6"/>
+    <col min="12034" max="12043" width="10.6640625" style="6" customWidth="1"/>
+    <col min="12044" max="12044" width="9.1640625" style="6"/>
+    <col min="12045" max="12045" width="10.6640625" style="6" customWidth="1"/>
+    <col min="12046" max="12288" width="9.1640625" style="6"/>
     <col min="12289" max="12289" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12299" width="10.7109375" style="6" customWidth="1"/>
-    <col min="12300" max="12300" width="9.140625" style="6"/>
-    <col min="12301" max="12301" width="10.7109375" style="6" customWidth="1"/>
-    <col min="12302" max="12544" width="9.140625" style="6"/>
+    <col min="12290" max="12299" width="10.6640625" style="6" customWidth="1"/>
+    <col min="12300" max="12300" width="9.1640625" style="6"/>
+    <col min="12301" max="12301" width="10.6640625" style="6" customWidth="1"/>
+    <col min="12302" max="12544" width="9.1640625" style="6"/>
     <col min="12545" max="12545" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12555" width="10.7109375" style="6" customWidth="1"/>
-    <col min="12556" max="12556" width="9.140625" style="6"/>
-    <col min="12557" max="12557" width="10.7109375" style="6" customWidth="1"/>
-    <col min="12558" max="12800" width="9.140625" style="6"/>
+    <col min="12546" max="12555" width="10.6640625" style="6" customWidth="1"/>
+    <col min="12556" max="12556" width="9.1640625" style="6"/>
+    <col min="12557" max="12557" width="10.6640625" style="6" customWidth="1"/>
+    <col min="12558" max="12800" width="9.1640625" style="6"/>
     <col min="12801" max="12801" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12811" width="10.7109375" style="6" customWidth="1"/>
-    <col min="12812" max="12812" width="9.140625" style="6"/>
-    <col min="12813" max="12813" width="10.7109375" style="6" customWidth="1"/>
-    <col min="12814" max="13056" width="9.140625" style="6"/>
+    <col min="12802" max="12811" width="10.6640625" style="6" customWidth="1"/>
+    <col min="12812" max="12812" width="9.1640625" style="6"/>
+    <col min="12813" max="12813" width="10.6640625" style="6" customWidth="1"/>
+    <col min="12814" max="13056" width="9.1640625" style="6"/>
     <col min="13057" max="13057" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13067" width="10.7109375" style="6" customWidth="1"/>
-    <col min="13068" max="13068" width="9.140625" style="6"/>
-    <col min="13069" max="13069" width="10.7109375" style="6" customWidth="1"/>
-    <col min="13070" max="13312" width="9.140625" style="6"/>
+    <col min="13058" max="13067" width="10.6640625" style="6" customWidth="1"/>
+    <col min="13068" max="13068" width="9.1640625" style="6"/>
+    <col min="13069" max="13069" width="10.6640625" style="6" customWidth="1"/>
+    <col min="13070" max="13312" width="9.1640625" style="6"/>
     <col min="13313" max="13313" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13323" width="10.7109375" style="6" customWidth="1"/>
-    <col min="13324" max="13324" width="9.140625" style="6"/>
-    <col min="13325" max="13325" width="10.7109375" style="6" customWidth="1"/>
-    <col min="13326" max="13568" width="9.140625" style="6"/>
+    <col min="13314" max="13323" width="10.6640625" style="6" customWidth="1"/>
+    <col min="13324" max="13324" width="9.1640625" style="6"/>
+    <col min="13325" max="13325" width="10.6640625" style="6" customWidth="1"/>
+    <col min="13326" max="13568" width="9.1640625" style="6"/>
     <col min="13569" max="13569" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13579" width="10.7109375" style="6" customWidth="1"/>
-    <col min="13580" max="13580" width="9.140625" style="6"/>
-    <col min="13581" max="13581" width="10.7109375" style="6" customWidth="1"/>
-    <col min="13582" max="13824" width="9.140625" style="6"/>
+    <col min="13570" max="13579" width="10.6640625" style="6" customWidth="1"/>
+    <col min="13580" max="13580" width="9.1640625" style="6"/>
+    <col min="13581" max="13581" width="10.6640625" style="6" customWidth="1"/>
+    <col min="13582" max="13824" width="9.1640625" style="6"/>
     <col min="13825" max="13825" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13835" width="10.7109375" style="6" customWidth="1"/>
-    <col min="13836" max="13836" width="9.140625" style="6"/>
-    <col min="13837" max="13837" width="10.7109375" style="6" customWidth="1"/>
-    <col min="13838" max="14080" width="9.140625" style="6"/>
+    <col min="13826" max="13835" width="10.6640625" style="6" customWidth="1"/>
+    <col min="13836" max="13836" width="9.1640625" style="6"/>
+    <col min="13837" max="13837" width="10.6640625" style="6" customWidth="1"/>
+    <col min="13838" max="14080" width="9.1640625" style="6"/>
     <col min="14081" max="14081" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14091" width="10.7109375" style="6" customWidth="1"/>
-    <col min="14092" max="14092" width="9.140625" style="6"/>
-    <col min="14093" max="14093" width="10.7109375" style="6" customWidth="1"/>
-    <col min="14094" max="14336" width="9.140625" style="6"/>
+    <col min="14082" max="14091" width="10.6640625" style="6" customWidth="1"/>
+    <col min="14092" max="14092" width="9.1640625" style="6"/>
+    <col min="14093" max="14093" width="10.6640625" style="6" customWidth="1"/>
+    <col min="14094" max="14336" width="9.1640625" style="6"/>
     <col min="14337" max="14337" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14347" width="10.7109375" style="6" customWidth="1"/>
-    <col min="14348" max="14348" width="9.140625" style="6"/>
-    <col min="14349" max="14349" width="10.7109375" style="6" customWidth="1"/>
-    <col min="14350" max="14592" width="9.140625" style="6"/>
+    <col min="14338" max="14347" width="10.6640625" style="6" customWidth="1"/>
+    <col min="14348" max="14348" width="9.1640625" style="6"/>
+    <col min="14349" max="14349" width="10.6640625" style="6" customWidth="1"/>
+    <col min="14350" max="14592" width="9.1640625" style="6"/>
     <col min="14593" max="14593" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14603" width="10.7109375" style="6" customWidth="1"/>
-    <col min="14604" max="14604" width="9.140625" style="6"/>
-    <col min="14605" max="14605" width="10.7109375" style="6" customWidth="1"/>
-    <col min="14606" max="14848" width="9.140625" style="6"/>
+    <col min="14594" max="14603" width="10.6640625" style="6" customWidth="1"/>
+    <col min="14604" max="14604" width="9.1640625" style="6"/>
+    <col min="14605" max="14605" width="10.6640625" style="6" customWidth="1"/>
+    <col min="14606" max="14848" width="9.1640625" style="6"/>
     <col min="14849" max="14849" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14859" width="10.7109375" style="6" customWidth="1"/>
-    <col min="14860" max="14860" width="9.140625" style="6"/>
-    <col min="14861" max="14861" width="10.7109375" style="6" customWidth="1"/>
-    <col min="14862" max="15104" width="9.140625" style="6"/>
+    <col min="14850" max="14859" width="10.6640625" style="6" customWidth="1"/>
+    <col min="14860" max="14860" width="9.1640625" style="6"/>
+    <col min="14861" max="14861" width="10.6640625" style="6" customWidth="1"/>
+    <col min="14862" max="15104" width="9.1640625" style="6"/>
     <col min="15105" max="15105" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15115" width="10.7109375" style="6" customWidth="1"/>
-    <col min="15116" max="15116" width="9.140625" style="6"/>
-    <col min="15117" max="15117" width="10.7109375" style="6" customWidth="1"/>
-    <col min="15118" max="15360" width="9.140625" style="6"/>
+    <col min="15106" max="15115" width="10.6640625" style="6" customWidth="1"/>
+    <col min="15116" max="15116" width="9.1640625" style="6"/>
+    <col min="15117" max="15117" width="10.6640625" style="6" customWidth="1"/>
+    <col min="15118" max="15360" width="9.1640625" style="6"/>
     <col min="15361" max="15361" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15371" width="10.7109375" style="6" customWidth="1"/>
-    <col min="15372" max="15372" width="9.140625" style="6"/>
-    <col min="15373" max="15373" width="10.7109375" style="6" customWidth="1"/>
-    <col min="15374" max="15616" width="9.140625" style="6"/>
+    <col min="15362" max="15371" width="10.6640625" style="6" customWidth="1"/>
+    <col min="15372" max="15372" width="9.1640625" style="6"/>
+    <col min="15373" max="15373" width="10.6640625" style="6" customWidth="1"/>
+    <col min="15374" max="15616" width="9.1640625" style="6"/>
     <col min="15617" max="15617" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15627" width="10.7109375" style="6" customWidth="1"/>
-    <col min="15628" max="15628" width="9.140625" style="6"/>
-    <col min="15629" max="15629" width="10.7109375" style="6" customWidth="1"/>
-    <col min="15630" max="15872" width="9.140625" style="6"/>
+    <col min="15618" max="15627" width="10.6640625" style="6" customWidth="1"/>
+    <col min="15628" max="15628" width="9.1640625" style="6"/>
+    <col min="15629" max="15629" width="10.6640625" style="6" customWidth="1"/>
+    <col min="15630" max="15872" width="9.1640625" style="6"/>
     <col min="15873" max="15873" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15883" width="10.7109375" style="6" customWidth="1"/>
-    <col min="15884" max="15884" width="9.140625" style="6"/>
-    <col min="15885" max="15885" width="10.7109375" style="6" customWidth="1"/>
-    <col min="15886" max="16128" width="9.140625" style="6"/>
+    <col min="15874" max="15883" width="10.6640625" style="6" customWidth="1"/>
+    <col min="15884" max="15884" width="9.1640625" style="6"/>
+    <col min="15885" max="15885" width="10.6640625" style="6" customWidth="1"/>
+    <col min="15886" max="16128" width="9.1640625" style="6"/>
     <col min="16129" max="16129" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16139" width="10.7109375" style="6" customWidth="1"/>
-    <col min="16140" max="16140" width="9.140625" style="6"/>
-    <col min="16141" max="16141" width="10.7109375" style="6" customWidth="1"/>
-    <col min="16142" max="16384" width="9.140625" style="6"/>
+    <col min="16130" max="16139" width="10.6640625" style="6" customWidth="1"/>
+    <col min="16140" max="16140" width="9.1640625" style="6"/>
+    <col min="16141" max="16141" width="10.6640625" style="6" customWidth="1"/>
+    <col min="16142" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="4"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1487,7 +1491,7 @@
       <c r="J3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1499,7 +1503,7 @@
       <c r="J4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>1996</v>
       </c>
@@ -1576,7 +1580,7 @@
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>1997</v>
       </c>
@@ -1618,7 +1622,7 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>1998</v>
       </c>
@@ -1660,7 +1664,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>1999</v>
       </c>
@@ -1702,7 +1706,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>2000</v>
       </c>
@@ -1744,7 +1748,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>2001</v>
       </c>
@@ -1786,7 +1790,7 @@
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>2002</v>
       </c>
@@ -1828,7 +1832,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>2003</v>
       </c>
@@ -1870,7 +1874,7 @@
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>2004</v>
       </c>
@@ -1912,7 +1916,7 @@
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>2005</v>
       </c>
@@ -1954,7 +1958,7 @@
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>2006</v>
       </c>
@@ -1996,7 +2000,7 @@
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>2007</v>
       </c>
@@ -2038,7 +2042,7 @@
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>2008</v>
       </c>
@@ -2080,7 +2084,7 @@
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>2009</v>
       </c>
@@ -2122,7 +2126,7 @@
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>2010</v>
       </c>
@@ -2160,7 +2164,7 @@
         <v>-43.122</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>2011</v>
       </c>
@@ -2198,7 +2202,7 @@
         <v>-329.78199999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>2012</v>
       </c>
@@ -2236,7 +2240,7 @@
         <v>-532.00599999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>2013</v>
       </c>
@@ -2274,7 +2278,7 @@
         <v>34.482999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>2014</v>
       </c>
@@ -2312,7 +2316,7 @@
         <v>-296.62900000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>2015</v>
       </c>
@@ -2350,7 +2354,7 @@
         <v>-146.03200000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>2016</v>
       </c>
@@ -2388,7 +2392,7 @@
         <v>-26.183</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
         <v>2017</v>
       </c>
@@ -2426,7 +2430,7 @@
         <v>-27.311</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="11">
         <v>2018</v>
       </c>
@@ -2464,7 +2468,7 @@
         <v>124.96899999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="11">
         <v>2019</v>
       </c>
@@ -2502,7 +2506,7 @@
         <v>-289.66399999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2516,7 +2520,7 @@
       <c r="K30" s="13"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>2018</v>
       </c>
@@ -2537,7 +2541,7 @@
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
         <v>15</v>
       </c>
@@ -2580,7 +2584,7 @@
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
         <v>16</v>
       </c>
@@ -2624,7 +2628,7 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -2662,7 +2666,7 @@
         <v>236.64500000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
         <v>18</v>
       </c>
@@ -2700,7 +2704,7 @@
         <v>124.96899999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -2714,7 +2718,7 @@
       <c r="K36" s="13"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="11">
         <v>2019</v>
       </c>
@@ -2735,7 +2739,7 @@
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="s">
         <v>15</v>
       </c>
@@ -2778,7 +2782,7 @@
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
         <v>16</v>
       </c>
@@ -2822,7 +2826,7 @@
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
@@ -2860,7 +2864,7 @@
         <v>-379.56799999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="15" t="s">
         <v>18</v>
       </c>
@@ -2898,7 +2902,7 @@
         <v>-289.66399999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -2912,7 +2916,7 @@
       <c r="K42" s="13"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="15">
         <v>2020</v>
       </c>
@@ -2928,7 +2932,7 @@
       <c r="K43" s="13"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="15" t="s">
         <v>15</v>
       </c>
@@ -2966,7 +2970,7 @@
         <v>-1100.8</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="15"/>
       <c r="B45" s="17"/>
       <c r="C45" s="18"/>
@@ -2980,7 +2984,7 @@
       <c r="K45" s="22"/>
       <c r="M45" s="19"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="23" t="s">
         <v>19</v>
       </c>
@@ -2993,7 +2997,7 @@
       <c r="H46" s="21"/>
       <c r="K46" s="22"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>20</v>
       </c>
@@ -3006,7 +3010,7 @@
       <c r="H47" s="21"/>
       <c r="K47" s="22"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="25" t="s">
         <v>21</v>
       </c>
@@ -3019,7 +3023,7 @@
       <c r="H48" s="21"/>
       <c r="K48" s="22"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="23" t="s">
         <v>22</v>
       </c>
@@ -3031,7 +3035,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
         <v>23</v>
       </c>
@@ -3043,47 +3047,47 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
     </row>
@@ -3101,15 +3105,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>40</v>
       </c>
@@ -3123,7 +3127,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>39</v>
       </c>
@@ -3139,7 +3143,7 @@
         <v>0.11897165305428475</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>
@@ -3155,7 +3159,7 @@
         <v>9.7329884793106447E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>33</v>
       </c>
@@ -3171,7 +3175,7 @@
         <v>3.9246378159626755E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>38</v>
       </c>
@@ -3187,7 +3191,7 @@
         <v>3.6885676785177193E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>8</v>
       </c>
@@ -3202,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>37</v>
       </c>
@@ -3217,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>36</v>
       </c>
@@ -3233,7 +3237,7 @@
         <v>0.46119785168008015</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>34</v>
       </c>
@@ -3249,7 +3253,7 @@
         <v>0.24636855552772466</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>35</v>
       </c>
@@ -3279,13 +3283,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>54</v>
       </c>
@@ -3293,7 +3297,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -3301,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -3310,7 +3314,7 @@
         <v>0.4198304952656351</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -3319,7 +3323,7 @@
         <v>0.11897165305428475</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -3328,7 +3332,7 @@
         <v>0.46119785168008015</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3336,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -3344,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3352,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -3360,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>

--- a/InputData/io-model/PoNDHbE/Perc of National Debt Held by Entity.xlsx
+++ b/InputData/io-model/PoNDHbE/Perc of National Debt Held by Entity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/io-model/pondhbe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/io-model/pondhbe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F673839A-78C9-C446-B013-B541E5C4D333}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4309B5-9950-1346-B3B8-6FF1F4451EF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="460" windowWidth="23960" windowHeight="15800" xr2:uid="{451D0B24-AF55-4E31-8A85-DA035DBAD1DC}"/>
+    <workbookView xWindow="3460" yWindow="460" windowWidth="23960" windowHeight="16060" xr2:uid="{451D0B24-AF55-4E31-8A85-DA035DBAD1DC}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
